--- a/Code/Results/Cases/Case_7_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_60/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>24.30918318928094</v>
       </c>
       <c r="C2">
-        <v>12.97044497652286</v>
+        <v>12.97044497652309</v>
       </c>
       <c r="D2">
-        <v>6.087878299643102</v>
+        <v>6.087878299643057</v>
       </c>
       <c r="E2">
-        <v>5.422919887234075</v>
+        <v>5.422919887234274</v>
       </c>
       <c r="F2">
-        <v>67.1372530447875</v>
+        <v>67.13725304478741</v>
       </c>
       <c r="G2">
-        <v>2.147873270795728</v>
+        <v>2.14787327079559</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.783657445151073</v>
+        <v>6.783657445151168</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.522040228280088</v>
+        <v>6.522040228280121</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.99397095581946</v>
+        <v>22.99397095581951</v>
       </c>
       <c r="C3">
-        <v>11.98356438902331</v>
+        <v>11.98356438902324</v>
       </c>
       <c r="D3">
-        <v>5.770752990773083</v>
+        <v>5.770752990773027</v>
       </c>
       <c r="E3">
-        <v>5.443290701933271</v>
+        <v>5.443290701933337</v>
       </c>
       <c r="F3">
-        <v>64.14179325033811</v>
+        <v>64.14179325033824</v>
       </c>
       <c r="G3">
-        <v>2.163412923765089</v>
+        <v>2.163412923765352</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.763404668696069</v>
+        <v>6.763404668696091</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.484653333236516</v>
+        <v>6.484653333236554</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.181862262429</v>
+        <v>22.18186226242901</v>
       </c>
       <c r="C4">
-        <v>11.35294234828461</v>
+        <v>11.35294234828447</v>
       </c>
       <c r="D4">
-        <v>5.572511061851515</v>
+        <v>5.572511061851518</v>
       </c>
       <c r="E4">
-        <v>5.456679518421274</v>
+        <v>5.456679518421277</v>
       </c>
       <c r="F4">
-        <v>62.29116488170497</v>
+        <v>62.29116488170523</v>
       </c>
       <c r="G4">
-        <v>2.173097194674213</v>
+        <v>2.173097194674081</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.467836253228872</v>
+        <v>6.467836253228923</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.8500323825907</v>
+        <v>21.85003238259061</v>
       </c>
       <c r="C5">
-        <v>11.08955401532723</v>
+        <v>11.08955401532725</v>
       </c>
       <c r="D5">
-        <v>5.490837306277842</v>
+        <v>5.490837306277766</v>
       </c>
       <c r="E5">
-        <v>5.46235278043057</v>
+        <v>5.462352780430703</v>
       </c>
       <c r="F5">
-        <v>61.53436629528106</v>
+        <v>61.53436629528113</v>
       </c>
       <c r="G5">
-        <v>2.177085480703911</v>
+        <v>2.177085480703509</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.748518827451852</v>
+        <v>6.748518827451838</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.462464362981099</v>
+        <v>6.462464362981144</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.7948881301625</v>
+        <v>21.79488813016259</v>
       </c>
       <c r="C6">
-        <v>11.0454264781713</v>
+        <v>11.04542647817122</v>
       </c>
       <c r="D6">
-        <v>5.477222055584908</v>
+        <v>5.477222055584872</v>
       </c>
       <c r="E6">
-        <v>5.463307828914918</v>
+        <v>5.46330782891492</v>
       </c>
       <c r="F6">
-        <v>61.40854957637247</v>
+        <v>61.40854957637214</v>
       </c>
       <c r="G6">
-        <v>2.177750423326537</v>
+        <v>2.177750423326663</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.747869429889182</v>
+        <v>6.747869429889129</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.461660056413058</v>
+        <v>6.461660056413134</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.17739027132063</v>
+        <v>22.17739027132056</v>
       </c>
       <c r="C7">
-        <v>11.3494163765206</v>
+        <v>11.34941637652038</v>
       </c>
       <c r="D7">
-        <v>5.571413168560689</v>
+        <v>5.571413168560734</v>
       </c>
       <c r="E7">
-        <v>5.456755155667179</v>
+        <v>5.456755155667048</v>
       </c>
       <c r="F7">
-        <v>62.28096877165635</v>
+        <v>62.28096877165682</v>
       </c>
       <c r="G7">
-        <v>2.173150805167397</v>
+        <v>2.1731508051674</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.752506005695863</v>
+        <v>6.752506005695823</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.467757888992148</v>
+        <v>6.467757888992129</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>23.85676716526177</v>
       </c>
       <c r="C8">
-        <v>12.63515900905067</v>
+        <v>12.63515900905066</v>
       </c>
       <c r="D8">
-        <v>5.979258346596397</v>
+        <v>5.979258346596489</v>
       </c>
       <c r="E8">
-        <v>5.429757997040968</v>
+        <v>5.429757997040906</v>
       </c>
       <c r="F8">
-        <v>66.10686243021307</v>
+        <v>66.10686243021321</v>
       </c>
       <c r="G8">
-        <v>2.15320547585219</v>
+        <v>2.15320547585245</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.776327800548257</v>
+        <v>6.776327800548366</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.507836589297549</v>
+        <v>6.50783658929754</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.10834589797121</v>
+        <v>27.10834589797124</v>
       </c>
       <c r="C9">
-        <v>14.97155226772792</v>
+        <v>14.97155226772782</v>
       </c>
       <c r="D9">
-        <v>6.752204382640109</v>
+        <v>6.752204382640172</v>
       </c>
       <c r="E9">
-        <v>5.384056436123083</v>
+        <v>5.384056436122882</v>
       </c>
       <c r="F9">
-        <v>73.5192525241177</v>
+        <v>73.51925252411785</v>
       </c>
       <c r="G9">
-        <v>2.114919236828015</v>
+        <v>2.114919236827619</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.836959516433624</v>
+        <v>6.836959516433468</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.63814867955572</v>
+        <v>6.638148679555607</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.51827986607937</v>
+        <v>29.51827986607941</v>
       </c>
       <c r="C10">
-        <v>16.59354507352053</v>
+        <v>16.59354507352068</v>
       </c>
       <c r="D10">
-        <v>7.306991887819053</v>
+        <v>7.306991887819042</v>
       </c>
       <c r="E10">
-        <v>5.355349092618216</v>
+        <v>5.355349092618282</v>
       </c>
       <c r="F10">
         <v>78.92735549587645</v>
       </c>
       <c r="G10">
-        <v>2.086792203531366</v>
+        <v>2.086792203531405</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.892046608668749</v>
+        <v>6.892046608668702</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.770032355477055</v>
+        <v>6.770032355477039</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.71133217208917</v>
+        <v>30.71133217208918</v>
       </c>
       <c r="C11">
-        <v>17.31602034297058</v>
+        <v>17.31602034297048</v>
       </c>
       <c r="D11">
-        <v>7.557789107699199</v>
+        <v>7.557789107699096</v>
       </c>
       <c r="E11">
-        <v>5.343491236233399</v>
+        <v>5.343491236233473</v>
       </c>
       <c r="F11">
-        <v>81.38860764666559</v>
+        <v>81.38860764666545</v>
       </c>
       <c r="G11">
-        <v>2.073858215827211</v>
+        <v>2.073858215827336</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.919952805775178</v>
+        <v>6.91995280577521</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.839071613977037</v>
+        <v>6.839071613977053</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.16126784530425</v>
+        <v>31.16126784530429</v>
       </c>
       <c r="C12">
-        <v>17.58792260466695</v>
+        <v>17.58792260466703</v>
       </c>
       <c r="D12">
-        <v>7.652680390194114</v>
+        <v>7.652680390194101</v>
       </c>
       <c r="E12">
-        <v>5.339190269200454</v>
+        <v>5.339190269200724</v>
       </c>
       <c r="F12">
-        <v>82.32197072266779</v>
+        <v>82.32197072266798</v>
       </c>
       <c r="G12">
-        <v>2.068926192771979</v>
+        <v>2.068926192772224</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.930986103007099</v>
+        <v>6.930986103007155</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.866634256478676</v>
+        <v>6.866634256478717</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.06443614735996</v>
+        <v>31.06443614735987</v>
       </c>
       <c r="C13">
-        <v>17.52942890959185</v>
+        <v>17.52942890959177</v>
       </c>
       <c r="D13">
-        <v>7.63224464002215</v>
+        <v>7.632244640022074</v>
       </c>
       <c r="E13">
-        <v>5.340107823905812</v>
+        <v>5.340107823905744</v>
       </c>
       <c r="F13">
-        <v>82.12087144005251</v>
+        <v>82.1208714400517</v>
       </c>
       <c r="G13">
-        <v>2.069990170280563</v>
+        <v>2.069990170280433</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.928588155538715</v>
+        <v>6.928588155538665</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.860632927791569</v>
+        <v>6.860632927791594</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.74838135767393</v>
+        <v>30.74838135767384</v>
       </c>
       <c r="C14">
-        <v>17.33842024320901</v>
+        <v>17.33842024320887</v>
       </c>
       <c r="D14">
-        <v>7.565596490155957</v>
+        <v>7.565596490155871</v>
       </c>
       <c r="E14">
-        <v>5.343133486768076</v>
+        <v>5.34313348676807</v>
       </c>
       <c r="F14">
-        <v>81.46536089517997</v>
+        <v>81.46536089517922</v>
       </c>
       <c r="G14">
-        <v>2.073453232315881</v>
+        <v>2.073453232315355</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.920850825328214</v>
+        <v>6.920850825328238</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.841310018216813</v>
+        <v>6.841310018216882</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.55457017555399</v>
+        <v>30.5545701755539</v>
       </c>
       <c r="C15">
-        <v>17.22122014278218</v>
+        <v>17.22122014278207</v>
       </c>
       <c r="D15">
-        <v>7.524767185228118</v>
+        <v>7.524767185228133</v>
       </c>
       <c r="E15">
-        <v>5.345012021648572</v>
+        <v>5.345012021648574</v>
       </c>
       <c r="F15">
-        <v>81.0640583419149</v>
+        <v>81.06405834191487</v>
       </c>
       <c r="G15">
-        <v>2.075569533797443</v>
+        <v>2.075569533797689</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.916174003530393</v>
+        <v>6.91617400353038</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.829662836462139</v>
+        <v>6.829662836462147</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.44001377174386</v>
+        <v>29.44001377174373</v>
       </c>
       <c r="C16">
-        <v>16.54606299033872</v>
+        <v>16.54606299033856</v>
       </c>
       <c r="D16">
-        <v>7.290581582046564</v>
+        <v>7.290581582046594</v>
       </c>
       <c r="E16">
-        <v>5.356149523734623</v>
+        <v>5.356149523734565</v>
       </c>
       <c r="F16">
-        <v>78.76662098463029</v>
+        <v>78.76662098463055</v>
       </c>
       <c r="G16">
-        <v>2.08763352001761</v>
+        <v>2.087633520017602</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.890284756932075</v>
+        <v>6.890284756932165</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.765712144760401</v>
+        <v>6.765712144760484</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.78821505662239</v>
+        <v>28.78821505662237</v>
       </c>
       <c r="C17">
         <v>16.12828180721663</v>
       </c>
       <c r="D17">
-        <v>7.146604216751477</v>
+        <v>7.146604216751521</v>
       </c>
       <c r="E17">
-        <v>5.363300170501611</v>
+        <v>5.363300170501462</v>
       </c>
       <c r="F17">
-        <v>77.35821618671429</v>
+        <v>77.35821618671443</v>
       </c>
       <c r="G17">
-        <v>2.094989513342596</v>
+        <v>2.094989513342302</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.875168784845302</v>
+        <v>6.875168784845285</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.728875174376771</v>
+        <v>6.728875174376769</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.43401822865167</v>
+        <v>28.43401822865171</v>
       </c>
       <c r="C18">
-        <v>15.88650075153588</v>
+        <v>15.88650075153577</v>
       </c>
       <c r="D18">
-        <v>7.063632708981367</v>
+        <v>7.063632708981387</v>
       </c>
       <c r="E18">
-        <v>5.36752488203351</v>
+        <v>5.367524882033385</v>
       </c>
       <c r="F18">
-        <v>76.54814797133217</v>
+        <v>76.54814797133206</v>
       </c>
       <c r="G18">
-        <v>2.099208409529284</v>
+        <v>2.099208409528897</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.866738525434436</v>
+        <v>6.866738525434444</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.708530752478721</v>
+        <v>6.708530752478676</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.31404723186117</v>
+        <v>28.31404723186118</v>
       </c>
       <c r="C19">
         <v>15.80436843900507</v>
       </c>
       <c r="D19">
-        <v>7.035508746231094</v>
+        <v>7.035508746231104</v>
       </c>
       <c r="E19">
-        <v>5.368974070565208</v>
+        <v>5.368974070565268</v>
       </c>
       <c r="F19">
-        <v>76.27384450959138</v>
+        <v>76.27384450959148</v>
       </c>
       <c r="G19">
-        <v>2.100635172035691</v>
+        <v>2.100635172035834</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.86392797419951</v>
+        <v>6.863927974199559</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.701784016607699</v>
+        <v>6.701784016607714</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.85374977027651</v>
+        <v>28.85374977027649</v>
       </c>
       <c r="C20">
-        <v>16.17290545408188</v>
+        <v>16.17290545408161</v>
       </c>
       <c r="D20">
-        <v>7.161946427454407</v>
+        <v>7.161946427454315</v>
       </c>
       <c r="E20">
         <v>5.36252728970249</v>
       </c>
       <c r="F20">
-        <v>77.50813501442649</v>
+        <v>77.508135014426</v>
       </c>
       <c r="G20">
-        <v>2.094207799749951</v>
+        <v>2.094207799750085</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.876750200788114</v>
+        <v>6.876750200788092</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.732708467890998</v>
+        <v>6.732708467891041</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.84125843905746</v>
+        <v>30.84125843905742</v>
       </c>
       <c r="C21">
-        <v>17.39456507335754</v>
+        <v>17.39456507335749</v>
       </c>
       <c r="D21">
-        <v>7.585173469138369</v>
+        <v>7.585173469138258</v>
       </c>
       <c r="E21">
-        <v>5.342239482199533</v>
+        <v>5.342239482199465</v>
       </c>
       <c r="F21">
-        <v>81.65785239863575</v>
+        <v>81.65785239863523</v>
       </c>
       <c r="G21">
-        <v>2.072437102669732</v>
+        <v>2.072437102669602</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.923110322542072</v>
+        <v>6.923110322542112</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.846946067254351</v>
+        <v>6.846946067254342</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.14826101839742</v>
+        <v>32.14826101839746</v>
       </c>
       <c r="C22">
-        <v>18.18350465914295</v>
+        <v>18.18350465914297</v>
       </c>
       <c r="D22">
-        <v>7.861408886606607</v>
+        <v>7.861408886606484</v>
       </c>
       <c r="E22">
-        <v>5.330095192821389</v>
+        <v>5.330095192821327</v>
       </c>
       <c r="F22">
-        <v>84.37860236449998</v>
+        <v>84.37860236449939</v>
       </c>
       <c r="G22">
-        <v>2.058000562974891</v>
+        <v>2.058000562975149</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.956158799261818</v>
+        <v>6.956158799261754</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.929949122236209</v>
+        <v>6.929949122236219</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.45137314435129</v>
+        <v>31.45137314435125</v>
       </c>
       <c r="C23">
-        <v>17.76309724712443</v>
+        <v>17.76309724712463</v>
       </c>
       <c r="D23">
-        <v>7.71395084045816</v>
+        <v>7.71395084045824</v>
       </c>
       <c r="E23">
-        <v>5.336468048261654</v>
+        <v>5.336468048261655</v>
       </c>
       <c r="F23">
-        <v>82.92519228653312</v>
+        <v>82.92519228653319</v>
       </c>
       <c r="G23">
-        <v>2.06573013126984</v>
+        <v>2.065730131270107</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.93824711411425</v>
+        <v>6.9382471141143</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.884840625159049</v>
+        <v>6.884840625159034</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.82412267842154</v>
+        <v>28.82412267842155</v>
       </c>
       <c r="C24">
-        <v>16.15273610355536</v>
+        <v>16.15273610355534</v>
       </c>
       <c r="D24">
-        <v>7.155010838005167</v>
+        <v>7.155010838005213</v>
       </c>
       <c r="E24">
-        <v>5.362876356082563</v>
+        <v>5.362876356082567</v>
       </c>
       <c r="F24">
-        <v>77.44035790987694</v>
+        <v>77.44035790987685</v>
       </c>
       <c r="G24">
-        <v>2.094561243090404</v>
+        <v>2.094561243090383</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.876034436543183</v>
+        <v>6.876034436543173</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.730972847956281</v>
+        <v>6.730972847956266</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.23344776323534</v>
+        <v>26.23344776323536</v>
       </c>
       <c r="C25">
-        <v>14.35760564936647</v>
+        <v>14.35760564936638</v>
       </c>
       <c r="D25">
-        <v>6.545727895292338</v>
+        <v>6.545727895292357</v>
       </c>
       <c r="E25">
-        <v>5.395604634905639</v>
+        <v>5.395604634905373</v>
       </c>
       <c r="F25">
-        <v>71.52276693604888</v>
+        <v>71.52276693604868</v>
       </c>
       <c r="G25">
-        <v>2.125235335761765</v>
+        <v>2.125235335761635</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.818872233358357</v>
+        <v>6.818872233358316</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.596911754020606</v>
+        <v>6.596911754020551</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.30918318928094</v>
+        <v>24.04131426256917</v>
       </c>
       <c r="C2">
-        <v>12.97044497652309</v>
+        <v>14.30026479965691</v>
       </c>
       <c r="D2">
-        <v>6.087878299643057</v>
+        <v>4.168203770456949</v>
       </c>
       <c r="E2">
-        <v>5.422919887234274</v>
+        <v>7.030374950613422</v>
       </c>
       <c r="F2">
-        <v>67.13725304478741</v>
+        <v>27.50131572696417</v>
       </c>
       <c r="G2">
-        <v>2.14787327079559</v>
+        <v>35.55579640159838</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.447615175270581</v>
       </c>
       <c r="J2">
-        <v>6.783657445151168</v>
+        <v>11.76317492125449</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.639200994316</v>
       </c>
       <c r="L2">
-        <v>6.522040228280121</v>
+        <v>5.808301667910929</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>8.19431784876185</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.99397095581951</v>
+        <v>22.48156039788288</v>
       </c>
       <c r="C3">
-        <v>11.98356438902324</v>
+        <v>13.40071067855478</v>
       </c>
       <c r="D3">
-        <v>5.770752990773027</v>
+        <v>4.049397223373999</v>
       </c>
       <c r="E3">
-        <v>5.443290701933337</v>
+        <v>6.898045989933951</v>
       </c>
       <c r="F3">
-        <v>64.14179325033824</v>
+        <v>26.96975723722063</v>
       </c>
       <c r="G3">
-        <v>2.163412923765352</v>
+        <v>34.61459772011446</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.755894369250104</v>
       </c>
       <c r="J3">
-        <v>6.763404668696091</v>
+        <v>11.70337914431083</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.71171121914006</v>
       </c>
       <c r="L3">
-        <v>6.484653333236554</v>
+        <v>5.756897404396486</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.869101849159773</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.18186226242901</v>
+        <v>21.47011926423003</v>
       </c>
       <c r="C4">
-        <v>11.35294234828447</v>
+        <v>12.81757175215728</v>
       </c>
       <c r="D4">
-        <v>5.572511061851518</v>
+        <v>3.974805626061987</v>
       </c>
       <c r="E4">
-        <v>5.456679518421277</v>
+        <v>6.814863093215154</v>
       </c>
       <c r="F4">
-        <v>62.29116488170523</v>
+        <v>26.65820249018599</v>
       </c>
       <c r="G4">
-        <v>2.173097194674081</v>
+        <v>34.05782336348189</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.950993790956252</v>
       </c>
       <c r="J4">
-        <v>6.752562021443688</v>
+        <v>11.67426764742464</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.76979820304988</v>
       </c>
       <c r="L4">
-        <v>6.467836253228923</v>
+        <v>5.724323510531979</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.662768627662762</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.85003238259061</v>
+        <v>21.04445991075871</v>
       </c>
       <c r="C5">
-        <v>11.08955401532725</v>
+        <v>12.57219051184585</v>
       </c>
       <c r="D5">
-        <v>5.490837306277766</v>
+        <v>3.944006197439963</v>
       </c>
       <c r="E5">
-        <v>5.462352780430703</v>
+        <v>6.780466354587945</v>
       </c>
       <c r="F5">
-        <v>61.53436629528113</v>
+        <v>26.5349916469415</v>
       </c>
       <c r="G5">
-        <v>2.177085480703509</v>
+        <v>33.83638121703251</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>3.031997881613726</v>
       </c>
       <c r="J5">
-        <v>6.748518827451838</v>
+        <v>11.66425403828963</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.79671898451219</v>
       </c>
       <c r="L5">
-        <v>6.462464362981144</v>
+        <v>5.710787334960665</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.57708566746107</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.79488813016259</v>
+        <v>20.97296610035425</v>
       </c>
       <c r="C6">
-        <v>11.04542647817122</v>
+        <v>12.53097747523842</v>
       </c>
       <c r="D6">
-        <v>5.477222055584872</v>
+        <v>3.938868003965844</v>
       </c>
       <c r="E6">
-        <v>5.46330782891492</v>
+        <v>6.774724299346826</v>
       </c>
       <c r="F6">
-        <v>61.40854957637214</v>
+        <v>26.51475953654796</v>
       </c>
       <c r="G6">
-        <v>2.177750423326663</v>
+        <v>33.79994363151913</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>3.045540173504653</v>
       </c>
       <c r="J6">
-        <v>6.747869429889129</v>
+        <v>11.66270114141376</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.80138082386924</v>
       </c>
       <c r="L6">
-        <v>6.461660056413134</v>
+        <v>5.708523617748459</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.562763707931406</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.17739027132056</v>
+        <v>21.46443323553921</v>
       </c>
       <c r="C7">
-        <v>11.34941637652038</v>
+        <v>12.81429381469431</v>
       </c>
       <c r="D7">
-        <v>5.571413168560734</v>
+        <v>3.974391869268244</v>
       </c>
       <c r="E7">
-        <v>5.456755155667048</v>
+        <v>6.814401243897383</v>
       </c>
       <c r="F7">
-        <v>62.28096877165682</v>
+        <v>26.65652561892781</v>
       </c>
       <c r="G7">
-        <v>2.1731508051674</v>
+        <v>34.05481469007221</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.952080120911736</v>
       </c>
       <c r="J7">
-        <v>6.752506005695823</v>
+        <v>11.67412519511111</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.77014831698428</v>
       </c>
       <c r="L7">
-        <v>6.467757888992129</v>
+        <v>5.724142027895921</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.661619455441207</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.85676716526177</v>
+        <v>23.5146735712844</v>
       </c>
       <c r="C8">
-        <v>12.63515900905066</v>
+        <v>13.99648881883186</v>
       </c>
       <c r="D8">
-        <v>5.979258346596489</v>
+        <v>4.127586120660663</v>
       </c>
       <c r="E8">
-        <v>5.429757997040906</v>
+        <v>6.985140716713222</v>
       </c>
       <c r="F8">
-        <v>66.10686243021321</v>
+        <v>27.31497397251674</v>
       </c>
       <c r="G8">
-        <v>2.15320547585245</v>
+        <v>35.22697165399289</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.552726045628651</v>
       </c>
       <c r="J8">
-        <v>6.776327800548366</v>
+        <v>11.74094222951055</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>17.66128849088691</v>
       </c>
       <c r="L8">
-        <v>6.50783658929754</v>
+        <v>5.790782646322154</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>8.083603094883408</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.10834589797124</v>
+        <v>27.13227149796123</v>
       </c>
       <c r="C9">
-        <v>14.97155226772782</v>
+        <v>16.0709756405648</v>
       </c>
       <c r="D9">
-        <v>6.752204382640172</v>
+        <v>4.414618936165932</v>
       </c>
       <c r="E9">
-        <v>5.384056436122882</v>
+        <v>7.305290038962349</v>
       </c>
       <c r="F9">
-        <v>73.51925252411785</v>
+        <v>28.72246373278762</v>
       </c>
       <c r="G9">
-        <v>2.114919236827619</v>
+        <v>37.68685514556152</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>1.813942214627399</v>
       </c>
       <c r="J9">
-        <v>6.836959516433468</v>
+        <v>11.93501040152346</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.5629137269216</v>
       </c>
       <c r="L9">
-        <v>6.638148679555607</v>
+        <v>5.913808347570225</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.855742143514355</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.51827986607941</v>
+        <v>29.57649013408419</v>
       </c>
       <c r="C10">
-        <v>16.59354507352068</v>
+        <v>17.48425296485914</v>
       </c>
       <c r="D10">
-        <v>7.306991887819042</v>
+        <v>4.60572779453933</v>
       </c>
       <c r="E10">
-        <v>5.355349092618282</v>
+        <v>7.489765244810163</v>
       </c>
       <c r="F10">
-        <v>78.92735549587645</v>
+        <v>29.57827474608321</v>
       </c>
       <c r="G10">
-        <v>2.086792203531405</v>
+        <v>39.20426727270782</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>1.810969183808264</v>
       </c>
       <c r="J10">
-        <v>6.892046608668702</v>
+        <v>12.04244761969682</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17.42450500588372</v>
       </c>
       <c r="L10">
-        <v>6.770032355477039</v>
+        <v>5.98704737359481</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>9.310446196081434</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.71133217208918</v>
+        <v>30.60275251771674</v>
       </c>
       <c r="C11">
-        <v>17.31602034297048</v>
+        <v>18.40742428868968</v>
       </c>
       <c r="D11">
-        <v>7.557789107699096</v>
+        <v>4.593071989838009</v>
       </c>
       <c r="E11">
-        <v>5.343491236233473</v>
+        <v>7.284110240828536</v>
       </c>
       <c r="F11">
-        <v>81.38860764666545</v>
+        <v>27.84703013144335</v>
       </c>
       <c r="G11">
-        <v>2.073858215827336</v>
+        <v>36.63511660557738</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>2.805371466637478</v>
       </c>
       <c r="J11">
-        <v>6.91995280577521</v>
+        <v>11.43312973638764</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>16.12335395430096</v>
       </c>
       <c r="L11">
-        <v>6.839071613977053</v>
+        <v>5.961868104020565</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.860213153522226</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.16126784530429</v>
+        <v>30.97287248190418</v>
       </c>
       <c r="C12">
-        <v>17.58792260466703</v>
+        <v>18.90536690727228</v>
       </c>
       <c r="D12">
-        <v>7.652680390194101</v>
+        <v>4.541780999166039</v>
       </c>
       <c r="E12">
-        <v>5.339190269200724</v>
+        <v>7.187470230067351</v>
       </c>
       <c r="F12">
-        <v>82.32197072266798</v>
+        <v>26.17651298216883</v>
       </c>
       <c r="G12">
-        <v>2.068926192772224</v>
+        <v>34.09409050553094</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.108322603510159</v>
       </c>
       <c r="J12">
-        <v>6.930986103007155</v>
+        <v>10.88932958601242</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.06998305881376</v>
       </c>
       <c r="L12">
-        <v>6.866634256478717</v>
+        <v>5.999599017200978</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>8.387835494375871</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.06443614735987</v>
+        <v>30.87330498402387</v>
       </c>
       <c r="C13">
-        <v>17.52942890959177</v>
+        <v>19.12151361506502</v>
       </c>
       <c r="D13">
-        <v>7.632244640022074</v>
+        <v>4.456535401528531</v>
       </c>
       <c r="E13">
-        <v>5.340107823905744</v>
+        <v>7.169009655692</v>
       </c>
       <c r="F13">
-        <v>82.1208714400517</v>
+        <v>24.4278433849063</v>
       </c>
       <c r="G13">
-        <v>2.069990170280433</v>
+        <v>31.36247199760659</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.444480375241534</v>
       </c>
       <c r="J13">
-        <v>6.928588155538665</v>
+        <v>10.36127748878922</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.15716424957954</v>
       </c>
       <c r="L13">
-        <v>6.860632927791594</v>
+        <v>6.08360603444167</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.862666002009933</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.74838135767384</v>
+        <v>30.59029611836788</v>
       </c>
       <c r="C14">
-        <v>17.33842024320887</v>
+        <v>19.14910171156982</v>
       </c>
       <c r="D14">
-        <v>7.565596490155871</v>
+        <v>4.381066873615935</v>
       </c>
       <c r="E14">
-        <v>5.34313348676807</v>
+        <v>7.206469221046401</v>
       </c>
       <c r="F14">
-        <v>81.46536089517922</v>
+        <v>23.16735782931523</v>
       </c>
       <c r="G14">
-        <v>2.073453232315355</v>
+        <v>29.34849362643705</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.475367745376196</v>
       </c>
       <c r="J14">
-        <v>6.920850825328238</v>
+        <v>10.00235201533335</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.60324758213501</v>
       </c>
       <c r="L14">
-        <v>6.841310018216882</v>
+        <v>6.170003571580528</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7.470212979887774</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.5545701755539</v>
+        <v>30.41971732663545</v>
       </c>
       <c r="C15">
-        <v>17.22122014278207</v>
+        <v>19.09510688260814</v>
       </c>
       <c r="D15">
-        <v>7.524767185228133</v>
+        <v>4.35545606583483</v>
       </c>
       <c r="E15">
-        <v>5.345012021648574</v>
+        <v>7.216040276581046</v>
       </c>
       <c r="F15">
-        <v>81.06405834191487</v>
+        <v>22.84818511410419</v>
       </c>
       <c r="G15">
-        <v>2.075569533797689</v>
+        <v>28.82224003695324</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.716666648146447</v>
       </c>
       <c r="J15">
-        <v>6.91617400353038</v>
+        <v>9.920109773473436</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.49947637658135</v>
       </c>
       <c r="L15">
-        <v>6.829662836462147</v>
+        <v>6.190570459366723</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>7.362552377824576</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.44001377174373</v>
+        <v>29.43842046601385</v>
       </c>
       <c r="C16">
-        <v>16.54606299033856</v>
+        <v>18.49306293872424</v>
       </c>
       <c r="D16">
-        <v>7.290581582046594</v>
+        <v>4.28911097697942</v>
       </c>
       <c r="E16">
-        <v>5.356149523734565</v>
+        <v>7.133720868174163</v>
       </c>
       <c r="F16">
-        <v>78.76662098463055</v>
+        <v>22.7854147382191</v>
       </c>
       <c r="G16">
-        <v>2.087633520017602</v>
+        <v>28.59715799515777</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.526431702001988</v>
       </c>
       <c r="J16">
-        <v>6.890284756932165</v>
+        <v>9.977442517804414</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.76179338485313</v>
       </c>
       <c r="L16">
-        <v>6.765712144760484</v>
+        <v>6.136202940013464</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>7.255933208172633</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.78821505662237</v>
+        <v>28.82631017475953</v>
       </c>
       <c r="C17">
-        <v>16.12828180721663</v>
+        <v>18.00454811740656</v>
       </c>
       <c r="D17">
-        <v>7.146604216751521</v>
+        <v>4.278937372583372</v>
       </c>
       <c r="E17">
-        <v>5.363300170501462</v>
+        <v>7.040116489193572</v>
       </c>
       <c r="F17">
-        <v>77.35821618671443</v>
+        <v>23.41856930100437</v>
       </c>
       <c r="G17">
-        <v>2.094989513342302</v>
+        <v>29.52943545358595</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.803555296123443</v>
       </c>
       <c r="J17">
-        <v>6.875168784845285</v>
+        <v>10.21186207253689</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.24399104606823</v>
       </c>
       <c r="L17">
-        <v>6.728875174376769</v>
+        <v>6.043308252913152</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>7.386182644768187</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.43401822865171</v>
+        <v>28.47668082638403</v>
       </c>
       <c r="C18">
-        <v>15.88650075153577</v>
+        <v>17.56765448479692</v>
       </c>
       <c r="D18">
-        <v>7.063632708981387</v>
+        <v>4.316174049014909</v>
       </c>
       <c r="E18">
-        <v>5.367524882033385</v>
+        <v>6.985597243122545</v>
       </c>
       <c r="F18">
-        <v>76.54814797133206</v>
+        <v>24.71812966273892</v>
       </c>
       <c r="G18">
-        <v>2.099208409528897</v>
+        <v>31.54602451374082</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.561836521087439</v>
       </c>
       <c r="J18">
-        <v>6.866738525434444</v>
+        <v>10.62591222593715</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.99676160107918</v>
       </c>
       <c r="L18">
-        <v>6.708530752478676</v>
+        <v>5.940208041704045</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.742780059433185</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.31404723186118</v>
+        <v>28.37028649336111</v>
       </c>
       <c r="C19">
-        <v>15.80436843900507</v>
+        <v>17.2141324801599</v>
       </c>
       <c r="D19">
-        <v>7.035508746231104</v>
+        <v>4.388697994609017</v>
       </c>
       <c r="E19">
-        <v>5.368974070565268</v>
+        <v>7.055487804871946</v>
       </c>
       <c r="F19">
-        <v>76.27384450959148</v>
+        <v>26.45955128222876</v>
       </c>
       <c r="G19">
-        <v>2.100635172035834</v>
+        <v>34.2673367729216</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.081267348290521</v>
       </c>
       <c r="J19">
-        <v>6.863927974199559</v>
+        <v>11.16012846628894</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.9570210674881</v>
       </c>
       <c r="L19">
-        <v>6.701784016607714</v>
+        <v>5.887629815596595</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>8.261192762341549</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.85374977027649</v>
+        <v>28.9530142635108</v>
       </c>
       <c r="C20">
-        <v>16.17290545408161</v>
+        <v>17.12496117215595</v>
       </c>
       <c r="D20">
-        <v>7.161946427454315</v>
+        <v>4.555566964985267</v>
       </c>
       <c r="E20">
-        <v>5.36252728970249</v>
+        <v>7.439656683449607</v>
       </c>
       <c r="F20">
-        <v>77.508135014426</v>
+        <v>29.3372416079513</v>
       </c>
       <c r="G20">
-        <v>2.094207799750085</v>
+        <v>38.78123058258133</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>1.679960773862723</v>
       </c>
       <c r="J20">
-        <v>6.876750200788092</v>
+        <v>12.00782267288441</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>17.44867770241895</v>
       </c>
       <c r="L20">
-        <v>6.732708467891041</v>
+        <v>5.967345528397214</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>9.189765399491243</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.84125843905742</v>
+        <v>30.74743744123121</v>
       </c>
       <c r="C21">
-        <v>17.39456507335749</v>
+        <v>18.107289801441</v>
       </c>
       <c r="D21">
-        <v>7.585173469138258</v>
+        <v>4.717184193973564</v>
       </c>
       <c r="E21">
-        <v>5.342239482199465</v>
+        <v>7.645641993162363</v>
       </c>
       <c r="F21">
-        <v>81.65785239863523</v>
+        <v>30.39856186768963</v>
       </c>
       <c r="G21">
-        <v>2.072437102669602</v>
+        <v>40.56211049726747</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.069293300024675</v>
       </c>
       <c r="J21">
-        <v>6.923110322542112</v>
+        <v>12.22408812636823</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>17.59843300610759</v>
       </c>
       <c r="L21">
-        <v>6.846946067254342</v>
+        <v>6.042739569490066</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>9.644768339428305</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.14826101839746</v>
+        <v>31.86988448185165</v>
       </c>
       <c r="C22">
-        <v>18.18350465914297</v>
+        <v>18.7420516221865</v>
       </c>
       <c r="D22">
-        <v>7.861408886606484</v>
+        <v>4.815469866479171</v>
       </c>
       <c r="E22">
-        <v>5.330095192821327</v>
+        <v>7.757152681848186</v>
       </c>
       <c r="F22">
-        <v>84.37860236449939</v>
+        <v>30.97732313562702</v>
       </c>
       <c r="G22">
-        <v>2.058000562975149</v>
+        <v>41.54493328313704</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>2.315136822939108</v>
       </c>
       <c r="J22">
-        <v>6.956158799261754</v>
+        <v>12.33464280662988</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>17.63941663110883</v>
       </c>
       <c r="L22">
-        <v>6.929949122236219</v>
+        <v>6.084698992713586</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>9.895829264881948</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.45137314435125</v>
+        <v>31.27523178086626</v>
       </c>
       <c r="C23">
-        <v>17.76309724712463</v>
+        <v>18.40562395033417</v>
       </c>
       <c r="D23">
-        <v>7.71395084045824</v>
+        <v>4.763148491434714</v>
       </c>
       <c r="E23">
-        <v>5.336468048261655</v>
+        <v>7.697726447150193</v>
       </c>
       <c r="F23">
-        <v>82.92519228653319</v>
+        <v>30.66734207654408</v>
       </c>
       <c r="G23">
-        <v>2.065730131270107</v>
+        <v>41.01909317379945</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.184223848144963</v>
       </c>
       <c r="J23">
-        <v>6.9382471141143</v>
+        <v>12.27482744400483</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>17.61583417939657</v>
       </c>
       <c r="L23">
-        <v>6.884840625159034</v>
+        <v>6.062352114089843</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>9.762492956668185</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.82412267842155</v>
+        <v>28.92537869162194</v>
       </c>
       <c r="C24">
-        <v>16.15273610355534</v>
+        <v>17.07937226849272</v>
       </c>
       <c r="D24">
-        <v>7.155010838005213</v>
+        <v>4.561979614661675</v>
       </c>
       <c r="E24">
-        <v>5.362876356082567</v>
+        <v>7.470553897548979</v>
       </c>
       <c r="F24">
-        <v>77.44035790987685</v>
+        <v>29.51734420977058</v>
       </c>
       <c r="G24">
-        <v>2.094561243090383</v>
+        <v>39.05639800198777</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>1.681531511143039</v>
       </c>
       <c r="J24">
-        <v>6.876034436543173</v>
+        <v>12.0657506592274</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>17.5628866031768</v>
       </c>
       <c r="L24">
-        <v>6.730972847956266</v>
+        <v>5.976599401981625</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>9.243123831402739</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.23344776323536</v>
+        <v>26.18208386784801</v>
       </c>
       <c r="C25">
-        <v>14.35760564936638</v>
+        <v>15.53573237979607</v>
       </c>
       <c r="D25">
-        <v>6.545727895292357</v>
+        <v>4.338437383254544</v>
       </c>
       <c r="E25">
-        <v>5.395604634905373</v>
+        <v>7.220151192159277</v>
       </c>
       <c r="F25">
-        <v>71.52276693604868</v>
+        <v>28.32945128220257</v>
       </c>
       <c r="G25">
-        <v>2.125235335761635</v>
+        <v>37.00500082465767</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.009319045625697</v>
       </c>
       <c r="J25">
-        <v>6.818872233358316</v>
+        <v>11.87538266911291</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.57613184007237</v>
       </c>
       <c r="L25">
-        <v>6.596911754020551</v>
+        <v>5.88129189478414</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.65310957373997</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.04131426256917</v>
+        <v>24.03913115072064</v>
       </c>
       <c r="C2">
-        <v>14.30026479965691</v>
+        <v>14.91060999033264</v>
       </c>
       <c r="D2">
-        <v>4.168203770456949</v>
+        <v>4.359759097994796</v>
       </c>
       <c r="E2">
-        <v>7.030374950613422</v>
+        <v>6.992840235931295</v>
       </c>
       <c r="F2">
-        <v>27.50131572696417</v>
+        <v>25.9460873228012</v>
       </c>
       <c r="G2">
-        <v>35.55579640159838</v>
+        <v>32.49479260036515</v>
       </c>
       <c r="H2">
-        <v>2.447615175270581</v>
+        <v>2.315054502321322</v>
       </c>
       <c r="J2">
-        <v>11.76317492125449</v>
+        <v>11.4847549697582</v>
       </c>
       <c r="K2">
-        <v>17.639200994316</v>
+        <v>16.34737475689745</v>
       </c>
       <c r="L2">
-        <v>5.808301667910929</v>
+        <v>13.48951619996556</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.74204102240896</v>
       </c>
       <c r="N2">
-        <v>8.19431784876185</v>
+        <v>5.739854223870481</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.463926525996515</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.48156039788288</v>
+        <v>22.46978394908283</v>
       </c>
       <c r="C3">
-        <v>13.40071067855478</v>
+        <v>13.90419365074517</v>
       </c>
       <c r="D3">
-        <v>4.049397223373999</v>
+        <v>4.239835460589852</v>
       </c>
       <c r="E3">
-        <v>6.898045989933951</v>
+        <v>6.882182518208594</v>
       </c>
       <c r="F3">
-        <v>26.96975723722063</v>
+        <v>25.54621204998892</v>
       </c>
       <c r="G3">
-        <v>34.61459772011446</v>
+        <v>31.83552119912865</v>
       </c>
       <c r="H3">
-        <v>2.755894369250104</v>
+        <v>2.590038270528864</v>
       </c>
       <c r="J3">
-        <v>11.70337914431083</v>
+        <v>11.41446472763065</v>
       </c>
       <c r="K3">
-        <v>17.71171121914006</v>
+        <v>16.50007573979796</v>
       </c>
       <c r="L3">
-        <v>5.756897404396486</v>
+        <v>13.65138306053102</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.81931181842125</v>
       </c>
       <c r="N3">
-        <v>7.869101849159773</v>
+        <v>5.695089059385552</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>8.13320446411838</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.47011926423003</v>
+        <v>21.4499115058658</v>
       </c>
       <c r="C4">
-        <v>12.81757175215728</v>
+        <v>13.25065939133848</v>
       </c>
       <c r="D4">
-        <v>3.974805626061987</v>
+        <v>4.164855907573715</v>
       </c>
       <c r="E4">
-        <v>6.814863093215154</v>
+        <v>6.812622188555604</v>
       </c>
       <c r="F4">
-        <v>26.65820249018599</v>
+        <v>25.3131103808118</v>
       </c>
       <c r="G4">
-        <v>34.05782336348189</v>
+        <v>31.4560442579878</v>
       </c>
       <c r="H4">
-        <v>2.950993790956252</v>
+        <v>2.764244746144471</v>
       </c>
       <c r="J4">
-        <v>11.67426764742464</v>
+        <v>11.37460725722177</v>
       </c>
       <c r="K4">
-        <v>17.76979820304988</v>
+        <v>16.60386483253539</v>
       </c>
       <c r="L4">
-        <v>5.724323510531979</v>
+        <v>13.75373329606301</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.89453411782925</v>
       </c>
       <c r="N4">
-        <v>7.662768627662762</v>
+        <v>5.666684642760692</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.923832508789133</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.04445991075871</v>
+        <v>21.02014486343669</v>
       </c>
       <c r="C5">
-        <v>12.57219051184585</v>
+        <v>12.97537747355716</v>
       </c>
       <c r="D5">
-        <v>3.944006197439963</v>
+        <v>4.133984597785201</v>
       </c>
       <c r="E5">
-        <v>6.780466354587945</v>
+        <v>6.783858520999384</v>
       </c>
       <c r="F5">
-        <v>26.5349916469415</v>
+        <v>25.22121222545796</v>
       </c>
       <c r="G5">
-        <v>33.83638121703251</v>
+        <v>31.30769524025411</v>
       </c>
       <c r="H5">
-        <v>3.031997881613726</v>
+        <v>2.836613810751808</v>
       </c>
       <c r="J5">
-        <v>11.66425403828963</v>
+        <v>11.35917228784044</v>
       </c>
       <c r="K5">
-        <v>17.79671898451219</v>
+        <v>16.64856143604118</v>
       </c>
       <c r="L5">
-        <v>5.710787334960665</v>
+        <v>13.79619560463465</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.93187781614459</v>
       </c>
       <c r="N5">
-        <v>7.57708566746107</v>
+        <v>5.654872411979224</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.837012978947397</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.97296610035425</v>
+        <v>20.94792734904808</v>
       </c>
       <c r="C6">
-        <v>12.53097747523842</v>
+        <v>12.92912575260816</v>
       </c>
       <c r="D6">
-        <v>3.938868003965844</v>
+        <v>4.128840007324575</v>
       </c>
       <c r="E6">
-        <v>6.774724299346826</v>
+        <v>6.779056829898389</v>
       </c>
       <c r="F6">
-        <v>26.51475953654796</v>
+        <v>25.20613831822477</v>
       </c>
       <c r="G6">
-        <v>33.79994363151913</v>
+        <v>31.28343923816257</v>
       </c>
       <c r="H6">
-        <v>3.045540173504653</v>
+        <v>2.848714732540851</v>
       </c>
       <c r="J6">
-        <v>11.66270114141376</v>
+        <v>11.35665740457908</v>
       </c>
       <c r="K6">
-        <v>17.80138082386924</v>
+        <v>16.65612494698311</v>
       </c>
       <c r="L6">
-        <v>5.708523617748459</v>
+        <v>13.8032922191695</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.93847382434969</v>
       </c>
       <c r="N6">
-        <v>7.562763707931406</v>
+        <v>5.652896496230824</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.822508915648238</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.46443323553921</v>
+        <v>21.44423035207503</v>
       </c>
       <c r="C7">
-        <v>12.81429381469431</v>
+        <v>13.23649074921697</v>
       </c>
       <c r="D7">
-        <v>3.974391869268244</v>
+        <v>4.168923827882745</v>
       </c>
       <c r="E7">
-        <v>6.814401243897383</v>
+        <v>6.812756974036757</v>
       </c>
       <c r="F7">
-        <v>26.65652561892781</v>
+        <v>25.28498338401914</v>
       </c>
       <c r="G7">
-        <v>34.05481469007221</v>
+        <v>31.5158701028469</v>
       </c>
       <c r="H7">
-        <v>2.952080120911736</v>
+        <v>2.766118869622497</v>
       </c>
       <c r="J7">
-        <v>11.67412519511111</v>
+        <v>11.32359608206944</v>
       </c>
       <c r="K7">
-        <v>17.77014831698428</v>
+        <v>16.5906132768091</v>
       </c>
       <c r="L7">
-        <v>5.724142027895921</v>
+        <v>13.74214324414199</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.88621572871394</v>
       </c>
       <c r="N7">
-        <v>7.661619455441207</v>
+        <v>5.665995763076649</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.922260908459244</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.5146735712844</v>
+        <v>23.50972980089097</v>
       </c>
       <c r="C8">
-        <v>13.99648881883186</v>
+        <v>14.53875398509188</v>
       </c>
       <c r="D8">
-        <v>4.127586120660663</v>
+        <v>4.333267214685668</v>
       </c>
       <c r="E8">
-        <v>6.985140716713222</v>
+        <v>6.956815878776991</v>
       </c>
       <c r="F8">
-        <v>27.31497397251674</v>
+        <v>25.71864961512281</v>
       </c>
       <c r="G8">
-        <v>35.22697165399289</v>
+        <v>32.46365234235009</v>
       </c>
       <c r="H8">
-        <v>2.552726045628651</v>
+        <v>2.411572131823735</v>
       </c>
       <c r="J8">
-        <v>11.74094222951055</v>
+        <v>11.29409892748367</v>
       </c>
       <c r="K8">
-        <v>17.66128849088691</v>
+        <v>16.35237793982555</v>
       </c>
       <c r="L8">
-        <v>5.790782646322154</v>
+        <v>13.50731251830297</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.73077822449213</v>
       </c>
       <c r="N8">
-        <v>8.083603094883408</v>
+        <v>5.722967733115983</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.349960626213017</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.13227149796123</v>
+        <v>27.16376042442429</v>
       </c>
       <c r="C9">
-        <v>16.0709756405648</v>
+        <v>16.84963664614991</v>
       </c>
       <c r="D9">
-        <v>4.414618936165932</v>
+        <v>4.627377223718431</v>
       </c>
       <c r="E9">
-        <v>7.305290038962349</v>
+        <v>7.225069826511296</v>
       </c>
       <c r="F9">
-        <v>28.72246373278762</v>
+        <v>26.76786509857596</v>
       </c>
       <c r="G9">
-        <v>37.68685514556152</v>
+        <v>34.29516644634486</v>
       </c>
       <c r="H9">
-        <v>1.813942214627399</v>
+        <v>1.754207870215534</v>
       </c>
       <c r="J9">
-        <v>11.93501040152346</v>
+        <v>11.44722221529766</v>
       </c>
       <c r="K9">
-        <v>17.5629137269216</v>
+        <v>16.0207502755067</v>
       </c>
       <c r="L9">
-        <v>5.913808347570225</v>
+        <v>13.1142606416802</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.69035042880096</v>
       </c>
       <c r="N9">
-        <v>8.855742143514355</v>
+        <v>5.829627124672758</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>9.136865957441488</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.57649013408419</v>
+        <v>29.58393078021241</v>
       </c>
       <c r="C10">
-        <v>17.48425296485914</v>
+        <v>18.35198569820939</v>
       </c>
       <c r="D10">
-        <v>4.60572779453933</v>
+        <v>4.843670020625637</v>
       </c>
       <c r="E10">
-        <v>7.489765244810163</v>
+        <v>7.379275177440178</v>
       </c>
       <c r="F10">
-        <v>29.57827474608321</v>
+        <v>27.2495102703674</v>
       </c>
       <c r="G10">
-        <v>39.20426727270782</v>
+        <v>35.76815474131973</v>
       </c>
       <c r="H10">
-        <v>1.810969183808264</v>
+        <v>1.809551126703294</v>
       </c>
       <c r="J10">
-        <v>12.04244761969682</v>
+        <v>11.23976517851152</v>
       </c>
       <c r="K10">
-        <v>17.42450500588372</v>
+        <v>15.64676097226201</v>
       </c>
       <c r="L10">
-        <v>5.98704737359481</v>
+        <v>12.70511475348838</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.65858057583551</v>
       </c>
       <c r="N10">
-        <v>9.310446196081434</v>
+        <v>5.893731577546099</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.596648601393236</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.60275251771674</v>
+        <v>30.60053132051402</v>
       </c>
       <c r="C11">
-        <v>18.40742428868968</v>
+        <v>19.09760137177058</v>
       </c>
       <c r="D11">
-        <v>4.593071989838009</v>
+        <v>4.84515068523591</v>
       </c>
       <c r="E11">
-        <v>7.284110240828536</v>
+        <v>7.186614566401943</v>
       </c>
       <c r="F11">
-        <v>27.84703013144335</v>
+        <v>25.42521832416827</v>
       </c>
       <c r="G11">
-        <v>36.63511660557738</v>
+        <v>34.23179846658307</v>
       </c>
       <c r="H11">
-        <v>2.805371466637478</v>
+        <v>2.789762092273544</v>
       </c>
       <c r="J11">
-        <v>11.43312973638764</v>
+        <v>10.19524673666107</v>
       </c>
       <c r="K11">
-        <v>16.12335395430096</v>
+        <v>14.4145913649411</v>
       </c>
       <c r="L11">
-        <v>5.961868104020565</v>
+        <v>11.79689100401995</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.759751851740187</v>
       </c>
       <c r="N11">
-        <v>8.860213153522226</v>
+        <v>5.902055066627946</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>9.108870293874356</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.97287248190418</v>
+        <v>30.96852651889564</v>
       </c>
       <c r="C12">
-        <v>18.90536690727228</v>
+        <v>19.452704594151</v>
       </c>
       <c r="D12">
-        <v>4.541780999166039</v>
+        <v>4.78423198796345</v>
       </c>
       <c r="E12">
-        <v>7.187470230067351</v>
+        <v>7.098050554453956</v>
       </c>
       <c r="F12">
-        <v>26.17651298216883</v>
+        <v>23.85036940167411</v>
       </c>
       <c r="G12">
-        <v>34.09409050553094</v>
+        <v>32.37124413782826</v>
       </c>
       <c r="H12">
-        <v>4.108322603510159</v>
+        <v>4.095679805084504</v>
       </c>
       <c r="J12">
-        <v>10.88932958601242</v>
+        <v>9.559146494967287</v>
       </c>
       <c r="K12">
-        <v>15.06998305881376</v>
+        <v>13.53597456222929</v>
       </c>
       <c r="L12">
-        <v>5.999599017200978</v>
+        <v>11.2008669932071</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.042723169813961</v>
       </c>
       <c r="N12">
-        <v>8.387835494375871</v>
+        <v>5.966969478246098</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>8.604487544113248</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.87330498402387</v>
+        <v>30.87302885241633</v>
       </c>
       <c r="C13">
-        <v>19.12151361506502</v>
+        <v>19.56102562870496</v>
       </c>
       <c r="D13">
-        <v>4.456535401528531</v>
+        <v>4.662613506749259</v>
       </c>
       <c r="E13">
-        <v>7.169009655692</v>
+        <v>7.089955030373712</v>
       </c>
       <c r="F13">
-        <v>24.4278433849063</v>
+        <v>22.40780040447946</v>
       </c>
       <c r="G13">
-        <v>31.36247199760659</v>
+        <v>29.95249609021105</v>
       </c>
       <c r="H13">
-        <v>5.444480375241534</v>
+        <v>5.443901002622929</v>
       </c>
       <c r="J13">
-        <v>10.36127748878922</v>
+        <v>9.256571222226334</v>
       </c>
       <c r="K13">
-        <v>14.15716424957954</v>
+        <v>12.90476046935023</v>
       </c>
       <c r="L13">
-        <v>6.08360603444167</v>
+        <v>10.80219781228521</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.460777546106476</v>
       </c>
       <c r="N13">
-        <v>7.862666002009933</v>
+        <v>6.072868591594972</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>8.050259389414014</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.59029611836788</v>
+        <v>30.59544498597723</v>
       </c>
       <c r="C14">
-        <v>19.14910171156982</v>
+        <v>19.52667455905082</v>
       </c>
       <c r="D14">
-        <v>4.381066873615935</v>
+        <v>4.551680121082793</v>
       </c>
       <c r="E14">
-        <v>7.206469221046401</v>
+        <v>7.138253254272714</v>
       </c>
       <c r="F14">
-        <v>23.16735782931523</v>
+        <v>21.45114256490059</v>
       </c>
       <c r="G14">
-        <v>29.34849362643705</v>
+        <v>28.0002706234329</v>
       </c>
       <c r="H14">
-        <v>6.475367745376196</v>
+        <v>6.476534049114899</v>
       </c>
       <c r="J14">
-        <v>10.00235201533335</v>
+        <v>9.172619323051435</v>
       </c>
       <c r="K14">
-        <v>13.60324758213501</v>
+        <v>12.57996090068953</v>
       </c>
       <c r="L14">
-        <v>6.170003571580528</v>
+        <v>10.60536960823137</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.128247865977634</v>
       </c>
       <c r="N14">
-        <v>7.470212979887774</v>
+        <v>6.17034998316921</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>7.638880748845891</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.41971732663545</v>
+        <v>30.42744478568255</v>
       </c>
       <c r="C15">
-        <v>19.09510688260814</v>
+        <v>19.46371149331487</v>
       </c>
       <c r="D15">
-        <v>4.35545606583483</v>
+        <v>4.513357079591072</v>
       </c>
       <c r="E15">
-        <v>7.216040276581046</v>
+        <v>7.152886795772749</v>
       </c>
       <c r="F15">
-        <v>22.84818511410419</v>
+        <v>21.24298136699796</v>
       </c>
       <c r="G15">
-        <v>28.82224003695324</v>
+        <v>27.42343137338057</v>
       </c>
       <c r="H15">
-        <v>6.716666648146447</v>
+        <v>6.716419269601021</v>
       </c>
       <c r="J15">
-        <v>9.920109773473436</v>
+        <v>9.205141460488916</v>
       </c>
       <c r="K15">
-        <v>13.49947637658135</v>
+        <v>12.54440449807464</v>
       </c>
       <c r="L15">
-        <v>6.190570459366723</v>
+        <v>10.5857619464335</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.076832176166773</v>
       </c>
       <c r="N15">
-        <v>7.362552377824576</v>
+        <v>6.19290226458086</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>7.527292724329373</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.43842046601385</v>
+        <v>29.45790053736593</v>
       </c>
       <c r="C16">
-        <v>18.49306293872424</v>
+        <v>18.91247391988549</v>
       </c>
       <c r="D16">
-        <v>4.28911097697942</v>
+        <v>4.413676519844315</v>
       </c>
       <c r="E16">
-        <v>7.133720868174163</v>
+        <v>7.091724977306707</v>
       </c>
       <c r="F16">
-        <v>22.7854147382191</v>
+        <v>21.48559484352922</v>
       </c>
       <c r="G16">
-        <v>28.59715799515777</v>
+        <v>26.66722883096744</v>
       </c>
       <c r="H16">
-        <v>6.526431702001988</v>
+        <v>6.51855855733805</v>
       </c>
       <c r="J16">
-        <v>9.977442517804414</v>
+        <v>9.67713032099037</v>
       </c>
       <c r="K16">
-        <v>13.76179338485313</v>
+        <v>12.92034481170686</v>
       </c>
       <c r="L16">
-        <v>6.136202940013464</v>
+        <v>10.83757584544435</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.326062233184231</v>
       </c>
       <c r="N16">
-        <v>7.255933208172633</v>
+        <v>6.136917473729544</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>7.427167361228378</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.82631017475953</v>
+        <v>28.85152970828262</v>
       </c>
       <c r="C17">
-        <v>18.00454811740656</v>
+        <v>18.48521055765481</v>
       </c>
       <c r="D17">
-        <v>4.278937372583372</v>
+        <v>4.400530974531763</v>
       </c>
       <c r="E17">
-        <v>7.040116489193572</v>
+        <v>7.004162908328923</v>
       </c>
       <c r="F17">
-        <v>23.41856930100437</v>
+        <v>22.15938006450169</v>
       </c>
       <c r="G17">
-        <v>29.52943545358595</v>
+        <v>27.24293693374618</v>
       </c>
       <c r="H17">
-        <v>5.803555296123443</v>
+        <v>5.789573568653487</v>
       </c>
       <c r="J17">
-        <v>10.21186207253689</v>
+        <v>10.05133004224322</v>
       </c>
       <c r="K17">
-        <v>14.24399104606823</v>
+        <v>13.36993710279936</v>
       </c>
       <c r="L17">
-        <v>6.043308252913152</v>
+        <v>11.14612932741465</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.670072343804454</v>
       </c>
       <c r="N17">
-        <v>7.386182644768187</v>
+        <v>6.038207972223051</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7.571949483525177</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.47668082638403</v>
+        <v>28.50377799388438</v>
       </c>
       <c r="C18">
-        <v>17.56765448479692</v>
+        <v>18.14234304306541</v>
       </c>
       <c r="D18">
-        <v>4.316174049014909</v>
+        <v>4.452334700776291</v>
       </c>
       <c r="E18">
-        <v>6.985597243122545</v>
+        <v>6.942566358295717</v>
       </c>
       <c r="F18">
-        <v>24.71812966273892</v>
+        <v>23.33001737380895</v>
       </c>
       <c r="G18">
-        <v>31.54602451374082</v>
+        <v>28.87929347804443</v>
       </c>
       <c r="H18">
-        <v>4.561836521087439</v>
+        <v>4.541962757454571</v>
       </c>
       <c r="J18">
-        <v>10.62591222593715</v>
+        <v>10.46623381497197</v>
       </c>
       <c r="K18">
-        <v>14.99676160107918</v>
+        <v>13.98236865547472</v>
       </c>
       <c r="L18">
-        <v>5.940208041704045</v>
+        <v>11.57860761464983</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.160525506508224</v>
       </c>
       <c r="N18">
-        <v>7.742780059433185</v>
+        <v>5.922173788502614</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.952394437054562</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.37028649336111</v>
+        <v>28.39603767727665</v>
       </c>
       <c r="C19">
-        <v>17.2141324801599</v>
+        <v>17.90718091488566</v>
       </c>
       <c r="D19">
-        <v>4.388697994609017</v>
+        <v>4.550107438219138</v>
       </c>
       <c r="E19">
-        <v>7.055487804871946</v>
+        <v>6.993708776278651</v>
       </c>
       <c r="F19">
-        <v>26.45955128222876</v>
+        <v>24.83567556755164</v>
       </c>
       <c r="G19">
-        <v>34.2673367729216</v>
+        <v>31.17618677192497</v>
       </c>
       <c r="H19">
-        <v>3.081267348290521</v>
+        <v>3.05525521546096</v>
       </c>
       <c r="J19">
-        <v>11.16012846628894</v>
+        <v>10.92224675220312</v>
       </c>
       <c r="K19">
-        <v>15.9570210674881</v>
+        <v>14.72585981686969</v>
       </c>
       <c r="L19">
-        <v>5.887629815596595</v>
+        <v>12.11095416836299</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.765867738980267</v>
       </c>
       <c r="N19">
-        <v>8.261192762341549</v>
+        <v>5.847025388787415</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>8.500942850965282</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.9530142635108</v>
+        <v>28.96800492092431</v>
       </c>
       <c r="C20">
-        <v>17.12496117215595</v>
+        <v>17.99868318260134</v>
       </c>
       <c r="D20">
-        <v>4.555566964985267</v>
+        <v>4.772104540611011</v>
       </c>
       <c r="E20">
-        <v>7.439656683449607</v>
+        <v>7.33526719860223</v>
       </c>
       <c r="F20">
-        <v>29.3372416079513</v>
+        <v>27.1954514023661</v>
       </c>
       <c r="G20">
-        <v>38.78123058258133</v>
+        <v>35.15536427690272</v>
       </c>
       <c r="H20">
-        <v>1.679960773862723</v>
+        <v>1.696619020797355</v>
       </c>
       <c r="J20">
-        <v>12.00782267288441</v>
+        <v>11.46007992037335</v>
       </c>
       <c r="K20">
-        <v>17.44867770241895</v>
+        <v>15.7837647313307</v>
       </c>
       <c r="L20">
-        <v>5.967345528397214</v>
+        <v>12.84086795622819</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.69268718032787</v>
       </c>
       <c r="N20">
-        <v>9.189765399491243</v>
+        <v>5.878045046969405</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.475684408993393</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.74743744123121</v>
+        <v>30.73694224270182</v>
       </c>
       <c r="C21">
-        <v>18.107289801441</v>
+        <v>18.92038909256237</v>
       </c>
       <c r="D21">
-        <v>4.717184193973564</v>
+        <v>5.037396808558956</v>
       </c>
       <c r="E21">
-        <v>7.645641993162363</v>
+        <v>7.525462501774117</v>
       </c>
       <c r="F21">
-        <v>30.39856186768963</v>
+        <v>27.45969279116057</v>
       </c>
       <c r="G21">
-        <v>40.56211049726747</v>
+        <v>37.88122650054108</v>
       </c>
       <c r="H21">
-        <v>2.069293300024675</v>
+        <v>2.026035352379039</v>
       </c>
       <c r="J21">
-        <v>12.22408812636823</v>
+        <v>10.53445729494616</v>
       </c>
       <c r="K21">
-        <v>17.59843300610759</v>
+        <v>15.43673776810308</v>
       </c>
       <c r="L21">
-        <v>6.042739569490066</v>
+        <v>12.48206389397282</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.6470144538136</v>
       </c>
       <c r="N21">
-        <v>9.644768339428305</v>
+        <v>5.931455947816579</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.934645587581686</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.86988448185165</v>
+        <v>31.84184697728726</v>
       </c>
       <c r="C22">
-        <v>18.7420516221865</v>
+        <v>19.49911331030343</v>
       </c>
       <c r="D22">
-        <v>4.815469866479171</v>
+        <v>5.20801011510671</v>
       </c>
       <c r="E22">
-        <v>7.757152681848186</v>
+        <v>7.631123235729877</v>
       </c>
       <c r="F22">
-        <v>30.97732313562702</v>
+        <v>27.50688504214008</v>
       </c>
       <c r="G22">
-        <v>41.54493328313704</v>
+        <v>39.5860140318395</v>
       </c>
       <c r="H22">
-        <v>2.315136822939108</v>
+        <v>2.233672794816893</v>
       </c>
       <c r="J22">
-        <v>12.33464280662988</v>
+        <v>9.875986853484923</v>
       </c>
       <c r="K22">
-        <v>17.63941663110883</v>
+        <v>15.14404750392953</v>
       </c>
       <c r="L22">
-        <v>6.084698992713586</v>
+        <v>12.20334583028477</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.57664394201011</v>
       </c>
       <c r="N22">
-        <v>9.895829264881948</v>
+        <v>5.961628237720043</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>10.1857369041888</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.27523178086626</v>
+        <v>31.25723835237433</v>
       </c>
       <c r="C23">
-        <v>18.40562395033417</v>
+        <v>19.21264914470118</v>
       </c>
       <c r="D23">
-        <v>4.763148491434714</v>
+        <v>5.105861840800018</v>
       </c>
       <c r="E23">
-        <v>7.697726447150193</v>
+        <v>7.572738218516002</v>
       </c>
       <c r="F23">
-        <v>30.66734207654408</v>
+        <v>27.54343620797425</v>
       </c>
       <c r="G23">
-        <v>41.01909317379945</v>
+        <v>38.52721693312509</v>
       </c>
       <c r="H23">
-        <v>2.184223848144963</v>
+        <v>2.124627806052506</v>
       </c>
       <c r="J23">
-        <v>12.27482744400483</v>
+        <v>10.3374206264988</v>
       </c>
       <c r="K23">
-        <v>17.61583417939657</v>
+        <v>15.33489465585934</v>
       </c>
       <c r="L23">
-        <v>6.062352114089843</v>
+        <v>12.37496935589637</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.64235259690647</v>
       </c>
       <c r="N23">
-        <v>9.762492956668185</v>
+        <v>5.946487070743578</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>10.0532585176585</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.92537869162194</v>
+        <v>28.94031092555411</v>
       </c>
       <c r="C24">
-        <v>17.07937226849272</v>
+        <v>17.96517555465308</v>
       </c>
       <c r="D24">
-        <v>4.561979614661675</v>
+        <v>4.780839596857248</v>
       </c>
       <c r="E24">
-        <v>7.470553897548979</v>
+        <v>7.363812509304384</v>
       </c>
       <c r="F24">
-        <v>29.51734420977058</v>
+        <v>27.3554217127427</v>
       </c>
       <c r="G24">
-        <v>39.05639800198777</v>
+        <v>35.37981985108857</v>
       </c>
       <c r="H24">
-        <v>1.681531511143039</v>
+        <v>1.698042584613961</v>
       </c>
       <c r="J24">
-        <v>12.0657506592274</v>
+        <v>11.51641856895649</v>
       </c>
       <c r="K24">
-        <v>17.5628866031768</v>
+        <v>15.87643509256496</v>
       </c>
       <c r="L24">
-        <v>5.976599401981625</v>
+        <v>12.90899922944213</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.76474003388433</v>
       </c>
       <c r="N24">
-        <v>9.243123831402739</v>
+        <v>5.883691838008822</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.532271769054429</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.18208386784801</v>
+        <v>26.21754595438232</v>
       </c>
       <c r="C25">
-        <v>15.53573237979607</v>
+        <v>16.26697914015733</v>
       </c>
       <c r="D25">
-        <v>4.338437383254544</v>
+        <v>4.543129463492292</v>
       </c>
       <c r="E25">
-        <v>7.220151192159277</v>
+        <v>7.15293637418801</v>
       </c>
       <c r="F25">
-        <v>28.32945128220257</v>
+        <v>26.50906840410963</v>
       </c>
       <c r="G25">
-        <v>37.00500082465767</v>
+        <v>33.69452953518293</v>
       </c>
       <c r="H25">
-        <v>2.009319045625697</v>
+        <v>1.926731874194352</v>
       </c>
       <c r="J25">
-        <v>11.87538266911291</v>
+        <v>11.47231762380734</v>
       </c>
       <c r="K25">
-        <v>17.57613184007237</v>
+        <v>16.11982469895834</v>
       </c>
       <c r="L25">
-        <v>5.88129189478414</v>
+        <v>13.2328686538397</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.68972358663255</v>
       </c>
       <c r="N25">
-        <v>8.65310957373997</v>
+        <v>5.802123300929043</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.930627622777388</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
